--- a/template.xlsx
+++ b/template.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
